--- a/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Monaco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>Obv: Mint symbol - Cornucopia, positioning far from portrait</t>
+  </si>
+  <si>
+    <t>Obv: With mint symbol - Cornucopia</t>
+  </si>
+  <si>
+    <t>Obv: Mint director Symbol - French horn</t>
+  </si>
+  <si>
+    <t>Obv: Mint director Symbol - Pentagon</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>Subtype_2</t>
   </si>
 </sst>
 </file>
@@ -306,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -399,13 +414,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -457,6 +481,21 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,23 +505,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -490,14 +517,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="9">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -547,39 +575,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -601,9 +596,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="12"/>
-    <tableColumn id="2" name="Link" dataDxfId="11" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="10"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -872,216 +867,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="4" width="36.6328125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="3" width="36.6328125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22">
         <v>2007</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="11" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="G3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <f t="shared" ref="H3:H6" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22">
         <v>2008</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="11" t="str">
+      <c r="B4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22">
         <v>2009</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="11" t="str">
+      <c r="B5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22">
         <v>2010</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="11" t="str">
+      <c r="B6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22">
         <v>2011</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="str">
-        <f t="shared" ref="G7:G16" si="1">IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="H7" s="11" t="str">
+        <f t="shared" ref="H7:H16" si="1">IF(OR(AND(G7&gt;1,G7&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22">
         <v>2012</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="11" t="str">
+      <c r="H8" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22">
         <v>2013</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="11" t="str">
+      <c r="H9" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22">
         <v>2013</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1090,140 +1128,183 @@
       <c r="C10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G10" s="10">
         <v>0</v>
       </c>
-      <c r="G10" s="11" t="str">
-        <f t="shared" ref="G10" si="2">IF(OR(AND(F10&gt;1,F10&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="H10" s="11" t="str">
+        <f t="shared" ref="H10" si="2">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22">
         <v>2014</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="11" t="str">
-        <f t="shared" ref="G11" si="3">IF(OR(AND(F11&gt;1,F11&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="B11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f t="shared" ref="H11" si="3">IF(OR(AND(G11&gt;1,G11&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22">
         <v>2015</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="29" t="s">
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="11" t="str">
+      <c r="G12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22">
         <v>2016</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="29" t="s">
+      <c r="C13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="11" t="str">
-        <f t="shared" ref="G13" si="4">IF(OR(AND(F13&gt;1,F13&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="G13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f t="shared" ref="H13" si="4">IF(OR(AND(G13&gt;1,G13&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22">
         <v>2017</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="29" t="s">
+      <c r="C14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="11" t="str">
+      <c r="G14" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22">
         <v>2018</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="29" t="s">
+      <c r="C15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="11" t="str">
+      <c r="G15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22">
         <v>2019</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="29" t="s">
+      <c r="C16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="11" t="str">
+      <c r="G16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1232,14 +1313,14 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7:F9">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+  <conditionalFormatting sqref="G7:G9">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F9">
+  <conditionalFormatting sqref="G7:G9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1251,12 +1332,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="G11">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1268,12 +1349,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1285,12 +1366,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F16">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
+  <conditionalFormatting sqref="G12:G16">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F16">
+  <conditionalFormatting sqref="G12:G16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1302,12 +1383,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F6">
+  <conditionalFormatting sqref="G4:G6">
     <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F6">
+  <conditionalFormatting sqref="G4:G6">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1319,12 +1400,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="G10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Monaco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE87697B-529E-4105-BA47-E7D856FA6BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -205,12 +206,15 @@
   </si>
   <si>
     <t>Subtype_2</t>
+  </si>
+  <si>
+    <t>300 years since the birth of Honoré III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,9 +519,17 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -589,16 +601,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -866,30 +878,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="3" width="36.6328125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="3" width="36.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -909,7 +921,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="5" t="s">
@@ -929,7 +941,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2007</v>
       </c>
@@ -956,7 +968,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2008</v>
       </c>
@@ -983,7 +995,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>2009</v>
       </c>
@@ -1010,7 +1022,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>2010</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>2011</v>
       </c>
@@ -1064,7 +1076,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>2012</v>
       </c>
@@ -1091,7 +1103,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>2013</v>
       </c>
@@ -1118,7 +1130,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>2013</v>
       </c>
@@ -1145,7 +1157,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2014</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>2015</v>
       </c>
@@ -1200,7 +1212,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>2016</v>
       </c>
@@ -1228,7 +1240,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>2017</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>2018</v>
       </c>
@@ -1282,7 +1294,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>2019</v>
       </c>
@@ -1306,6 +1318,33 @@
       </c>
       <c r="H16" s="11" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f t="shared" ref="H17" si="5">IF(OR(AND(G17&gt;1,G17&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1316,12 +1355,12 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1333,11 +1372,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1349,12 +1405,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="G12:G16">
     <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="G12:G16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1366,12 +1422,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G16">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+  <conditionalFormatting sqref="G4:G6">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G16">
+  <conditionalFormatting sqref="G4:G6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1383,29 +1456,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1424,21 +1480,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -1449,7 +1505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1460,7 +1516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1471,7 +1527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1482,7 +1538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1493,7 +1549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1504,7 +1560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1517,12 +1573,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Monaco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE87697B-529E-4105-BA47-E7D856FA6BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D6838-FB1E-4F6A-B67A-6760C6745782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -68,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
   <si>
     <t>Year</t>
   </si>
@@ -209,13 +218,25 @@
   </si>
   <si>
     <t>300 years since the birth of Honoré III</t>
+  </si>
+  <si>
+    <t>100th anniversary - Death of Prince Albert I</t>
+  </si>
+  <si>
+    <t>10th anniversary - Wedding of Albert II</t>
+  </si>
+  <si>
+    <t>100th anniversary - Birth of Prince Rainier</t>
+  </si>
+  <si>
+    <t>Obv: Mint main engraving Symbol - Square</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -279,6 +300,10 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="8">
@@ -521,7 +546,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -538,6 +563,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -879,29 +912,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="3" width="36.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="3" width="36.54296875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -921,7 +954,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="5" t="s">
@@ -941,7 +974,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>2007</v>
       </c>
@@ -968,7 +1001,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>2008</v>
       </c>
@@ -995,7 +1028,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>2009</v>
       </c>
@@ -1022,7 +1055,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>2010</v>
       </c>
@@ -1049,7 +1082,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>2011</v>
       </c>
@@ -1076,7 +1109,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>2012</v>
       </c>
@@ -1103,7 +1136,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>2013</v>
       </c>
@@ -1130,7 +1163,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>2013</v>
       </c>
@@ -1149,15 +1182,15 @@
       <c r="F10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="10">
-        <v>0</v>
+      <c r="G10" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="H10" s="11" t="str">
         <f t="shared" ref="H10" si="2">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>2014</v>
       </c>
@@ -1184,7 +1217,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>2015</v>
       </c>
@@ -1212,7 +1245,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>2016</v>
       </c>
@@ -1240,7 +1273,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>2017</v>
       </c>
@@ -1267,7 +1300,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>2018</v>
       </c>
@@ -1294,7 +1327,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>2019</v>
       </c>
@@ -1321,7 +1354,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22">
         <v>2020</v>
       </c>
@@ -1344,7 +1377,88 @@
         <v>6</v>
       </c>
       <c r="H17" s="11" t="str">
-        <f t="shared" ref="H17" si="5">IF(OR(AND(G17&gt;1,G17&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H17:H18" si="5">IF(OR(AND(G17&gt;1,G17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f t="shared" ref="H19:H20" si="6">IF(OR(AND(G19&gt;1,G19&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1354,13 +1468,14 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1372,11 +1487,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1388,12 +1520,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="G12:G16 G18 G20">
     <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="G12:G16 G18 G20">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1405,13 +1537,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G16">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+  <conditionalFormatting sqref="G4:G6">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G16">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="G4:G6">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1422,13 +1554,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+  <conditionalFormatting sqref="G17 G19">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="G17 G19">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1440,28 +1572,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1484,17 +1599,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -1505,7 +1620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1516,7 +1631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1527,7 +1642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1538,7 +1653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1549,7 +1664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1560,7 +1675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D6838-FB1E-4F6A-B67A-6760C6745782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F452689-1019-461F-8CA0-486D147C43ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>Obv: Mint main engraving Symbol - Square</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -546,15 +546,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -641,9 +633,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -918,7 +910,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -939,18 +931,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="30"/>
       <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>4</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -958,19 +950,19 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -979,22 +971,22 @@
         <v>2007</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="F3" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="11" t="str">
         <f t="shared" ref="H3:H6" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1006,22 +998,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1033,22 +1025,22 @@
         <v>2009</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1060,22 +1052,22 @@
         <v>2010</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1087,19 +1079,19 @@
         <v>2011</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -1114,19 +1106,19 @@
         <v>2012</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -1141,19 +1133,19 @@
         <v>2013</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
@@ -1168,22 +1160,22 @@
         <v>2013</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="11" t="str">
         <f t="shared" ref="H10" si="2">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-")),"Can exchange","")</f>
@@ -1195,22 +1187,22 @@
         <v>2014</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="11" t="str">
         <f t="shared" ref="H11" si="3">IF(OR(AND(G11&gt;1,G11&lt;&gt;"-")),"Can exchange","")</f>
@@ -1222,22 +1214,22 @@
         <v>2015</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1250,22 +1242,22 @@
         <v>2016</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="11" t="str">
         <f t="shared" ref="H13" si="4">IF(OR(AND(G13&gt;1,G13&lt;&gt;"-")),"Can exchange","")</f>
@@ -1278,22 +1270,22 @@
         <v>2017</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1305,22 +1297,22 @@
         <v>2018</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1332,22 +1324,22 @@
         <v>2019</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1359,22 +1351,22 @@
         <v>2020</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" s="11" t="str">
         <f t="shared" ref="H17:H18" si="5">IF(OR(AND(G17&gt;1,G17&lt;&gt;"-")),"Can exchange","")</f>
@@ -1386,22 +1378,22 @@
         <v>2021</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="11" t="str">
         <f t="shared" si="5"/>
@@ -1413,22 +1405,22 @@
         <v>2022</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19" s="11" t="str">
         <f t="shared" ref="H19:H20" si="6">IF(OR(AND(G19&gt;1,G19&lt;&gt;"-")),"Can exchange","")</f>
@@ -1440,22 +1432,22 @@
         <v>2023</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="F20" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="11" t="str">
         <f t="shared" si="6"/>
@@ -1470,7 +1462,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1487,7 +1479,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1504,7 +1496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1521,7 +1513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G16 G18 G20">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1538,7 +1530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1559,7 +1551,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17 G19">
+  <conditionalFormatting sqref="G19 G17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1572,7 +1564,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1611,13 +1603,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1625,10 +1617,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1636,10 +1628,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1647,10 +1639,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1658,10 +1650,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1669,10 +1661,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1680,10 +1672,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
